--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value704.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value704.xlsx
@@ -354,7 +354,7 @@
         <v>2.623673846872372</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.287987498987769</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value704.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value704.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.548858200096515</v>
+        <v>1.018094897270203</v>
       </c>
       <c r="B1">
-        <v>2.623673846872372</v>
+        <v>1.482462763786316</v>
       </c>
       <c r="C1">
+        <v>3.038525581359863</v>
+      </c>
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="D1">
-        <v>1.287987498987769</v>
-      </c>
       <c r="E1">
-        <v>0.7649495701356862</v>
+        <v>1.458145141601562</v>
       </c>
     </row>
   </sheetData>
